--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2647.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2647.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8335612881990682</v>
+        <v>2.136510610580444</v>
       </c>
       <c r="B1">
-        <v>1.552139397091269</v>
+        <v>2.56273078918457</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.554456472396851</v>
       </c>
       <c r="D1">
-        <v>1.422250511587952</v>
+        <v>2.845099687576294</v>
       </c>
       <c r="E1">
-        <v>0.8563063828771991</v>
+        <v>0.535198450088501</v>
       </c>
     </row>
   </sheetData>
